--- a/src/results/report.xlsx
+++ b/src/results/report.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,7 +442,7 @@
     <col width="14" customWidth="1" min="4" max="4"/>
     <col width="19" customWidth="1" min="5" max="5"/>
     <col width="19" customWidth="1" min="6" max="6"/>
-    <col width="1683" customWidth="1" min="7" max="7"/>
+    <col width="4512" customWidth="1" min="7" max="7"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -521,6 +521,735 @@
         </is>
       </c>
     </row>
+    <row r="3" ht="15" customHeight="1">
+      <c r="A3" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>101</v>
+      </c>
+      <c r="D3" t="n">
+        <v>43</v>
+      </c>
+      <c r="E3" t="n">
+        <v>37</v>
+      </c>
+      <c r="F3" t="n">
+        <v>21</v>
+      </c>
+      <c r="G3" s="2" t="inlineStr">
+        <is>
+          <t>../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-445-_JPG.rf.f32998290a4249889c3ebc39b80d8489.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-1042-_JPG.rf.9fb4014c54d5b72f9ef516e00ef90ff7.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-266-_JPG.rf.a483d34a4a1564b990afe6794eff2828.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-642-_JPG.rf.0e47b3898bb3d8ed8fa931bc32e150a3.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-399-_JPG.rf.705b27583184624d288918de45ce61e3.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-30-_JPG.rf.33a92f35e180fcd459a93d8add17716d.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-182-_JPG.rf.0babd89dbc29b35a6f51a5c66b980dd5.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-242-_JPG.rf.3dd13cf830ade7b717584ca902e6ebde.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-759-_JPG.rf.6c1948e459994c69080e2c2137eb0317.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-744-_JPG.rf.058880794fac9ba7e33146a9d6d8429f.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-335-_JPG.rf.244e5a9baad3aaad28435ff538efb14b.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-391-_JPG.rf.3bc0f66162fcbc5e3414eef75228101c.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-213-_JPG.rf.b7f8215a5a0848b1c48a21e9b809cda1.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-251-_JPG.rf.07bcc17218f507b4a6728c001b84183b.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-334-_JPG.rf.1d80fd868c346c51cc7e8d81e1b4d21a.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-19-_JPG.rf.2a1fdd95d72dd9e7dd4a1e29c9cda469.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-638-_JPG.rf.37a2cea7214a0c5526b56bd1256b6c0c.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-732-_JPG.rf.6439f0ba31be467c65635d23f883f03a.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-129-_JPG.rf.ab9ee6ec9cc54cf08a84ed6dd6b17660.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-20-_JPG.rf.4079ad9771a896e16aff7efb6bf87f78.jpg
+./test/distorted_test.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>101</v>
+      </c>
+      <c r="D4" t="n">
+        <v>49</v>
+      </c>
+      <c r="E4" t="n">
+        <v>20</v>
+      </c>
+      <c r="F4" t="n">
+        <v>32</v>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-477-_JPG.rf.4767b8d41c78e578e4e3c9e087b6db8e.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-744-_JPG.rf.058880794fac9ba7e33146a9d6d8429f.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-292-_JPG.rf.bd7a56c8ccd89e5b11a37956c4c10c48.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-14-_JPG.rf.c84b9669389d55b7e69099fa75e9c9e6.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-360-_JPG.rf.bc5eed1c8f75a6a7022c1b7a0d4166f8.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-1042-_JPG.rf.9fb4014c54d5b72f9ef516e00ef90ff7.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-716-_JPG.rf.8df6fe9790adc51940d39e5b0d72fda6.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-630-_JPG.rf.2eeb2e013056f437bb53f3e5e2075686.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-807-_JPG.rf.b9fc3a3ebbe5be7338e77f73d709177f.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-1024-_JPG.rf.c043f957ae5d4ef4776904ddca95c071.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-229-_JPG.rf.df6e02577675d59232d98aa29fe53f40.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-438-_JPG.rf.76996c330be190456e42bab9f0d9ce6e.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-331-_JPG.rf.248b20f0b3c568d2dda7ebcf17826d17.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-1006-_JPG.rf.368f197102bba7d346f319629104cb0d.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-280-_JPG.rf.3214c920a44a5d32b72cf44aec389726.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-611-_JPG.rf.43428d77209bb9666fce8512123fc2ca.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-984-_JPG.rf.4b994eca171f54d19d1289e9feda47f5.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-556-_JPG.rf.9a4b30acc38058afcea4509f4d014075.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-833-_JPG.rf.ef5726f718908a5a1637b6718795e426.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-154-_JPG.rf.4b873a53250dd64a9f47f7beb2243878.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-291-_JPG.rf.f2595b043b3affcf70263ccf7660cce6.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-646-_JPG.rf.5d1fd109686f21a3a4b1bd5ed67e69f0.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-745-_JPG.rf.f7a377399dd86380a0ce3bdad589bf40.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-346-_JPG.rf.84dcdd0d78459de103679fc4072923b9.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-713-_JPG.rf.87db25da7f74c708f7760e1534aac620.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-427-_JPG.rf.195a5bcd9520fbb6e3cd13ff2c24d8dc.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-1006-_JPG.rf.0ca96c6328a236eaa3caf97806b43547.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-641-_JPG.rf.8976c889ac7d3c9ea9e5acfc68bd1cf8.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-742-_JPG.rf.336134b7a8c0a20be8edeed4451b23f3.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-278-_JPG.rf.b80b2ffcc22a51a8028267a249072e8e.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-238-_JPG.rf.6dbbd7f7812978644c959b17a15725fd.jpg
+./test/distorted_test.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>101</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36</v>
+      </c>
+      <c r="E5" t="n">
+        <v>45</v>
+      </c>
+      <c r="F5" t="n">
+        <v>20</v>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-360-_JPG.rf.bc5eed1c8f75a6a7022c1b7a0d4166f8.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-1034-_JPG.rf.3860e7f828d0d30a55ff56f470bd5ec2.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-335-_JPG.rf.244e5a9baad3aaad28435ff538efb14b.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-236-_JPG.rf.d452958e476cf266515683defbcb84f3.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-1042-_JPG.rf.9fb4014c54d5b72f9ef516e00ef90ff7.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-187-_JPG.rf.101e220a5eba6517da525ee24bf12efd.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-339-_JPG.rf.fa2ba7a841d2fc746694253675b72cf2.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-418-_JPG.rf.b9c343ef6a19a166eb2fab6c91e9c530.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-238-_JPG.rf.6dbbd7f7812978644c959b17a15725fd.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-732-_JPG.rf.6439f0ba31be467c65635d23f883f03a.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-331-_JPG.rf.248b20f0b3c568d2dda7ebcf17826d17.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-391-_JPG.rf.3bc0f66162fcbc5e3414eef75228101c.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-624-_JPG.rf.47d196e9d7f7468dd0a7a66329aaed35.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-150-_JPG.rf.07b2d5c0f264e84dd7369b3142b0ab5a.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-417-_JPG.rf.c301b1ab8085ae7697a696e847ed1e3a.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-30-_JPG.rf.33a92f35e180fcd459a93d8add17716d.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-755-_JPG.rf.16bc7e3c1f2890154366e119e5355465.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-19-_JPG.rf.2a1fdd95d72dd9e7dd4a1e29c9cda469.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-54-_JPG.rf.ca3fadaea1abe4091ab7fcfe3f589821.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-319-_JPG.rf.bdde571eadd1490210d159261cb5b055.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>101</v>
+      </c>
+      <c r="D6" t="n">
+        <v>48</v>
+      </c>
+      <c r="E6" t="n">
+        <v>29</v>
+      </c>
+      <c r="F6" t="n">
+        <v>24</v>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-362-_JPG.rf.4bd1b557bc28ed4ebb7c10a5d352c3d4.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-744-_JPG.rf.058880794fac9ba7e33146a9d6d8429f.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-162-_JPG.rf.4bd9a0c812af465ebe013c1a8c577341.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-19-_JPG.rf.2a1fdd95d72dd9e7dd4a1e29c9cda469.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-713-_JPG.rf.87db25da7f74c708f7760e1534aac620.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-1006-_JPG.rf.368f197102bba7d346f319629104cb0d.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-187-_JPG.rf.101e220a5eba6517da525ee24bf12efd.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-3-_JPG.rf.61ddb6d24fa910f849334bc4032b2be2.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-180-_JPG.rf.b585d4e642b35da0c395188964f330fa.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-234-_JPG.rf.fc667e9e6ed0cf128e3beebc7437d192.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-96-_JPG.rf.e8f9a0d5a9db9480443d995e3cbfa16d.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-485-_JPG.rf.907f717c74dad2717f81b655b067e6d9.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-417-_JPG.rf.c301b1ab8085ae7697a696e847ed1e3a.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-930-_JPG.rf.f3dbed2e54bbd6ca708a5d19e8bf7305.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-624-_JPG.rf.47d196e9d7f7468dd0a7a66329aaed35.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-391-_JPG.rf.3bc0f66162fcbc5e3414eef75228101c.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-51-_JPG.rf.9c89eea5b72dd1a7618754322eab42de.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-189-_JPG.rf.557a72188a67f78d2335f67cefc505d3.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-479-_JPG.rf.e38d4b914d9ad1ef813e301c62645630.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-394-_JPG.rf.c0e7077a8852eae6cf51ac6da63f510c.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-335-_JPG.rf.244e5a9baad3aaad28435ff538efb14b.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-477-_JPG.rf.4767b8d41c78e578e4e3c9e087b6db8e.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-229-_JPG.rf.df6e02577675d59232d98aa29fe53f40.jpg
+./test/distorted_test.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>101</v>
+      </c>
+      <c r="D7" t="n">
+        <v>37</v>
+      </c>
+      <c r="E7" t="n">
+        <v>41</v>
+      </c>
+      <c r="F7" t="n">
+        <v>23</v>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-242-_JPG.rf.3dd13cf830ade7b717584ca902e6ebde.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-230-_JPG.rf.796339e7b787db3b8ff8a5bea55421d2.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-744-_JPG.rf.058880794fac9ba7e33146a9d6d8429f.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-1006-_JPG.rf.368f197102bba7d346f319629104cb0d.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-716-_JPG.rf.8df6fe9790adc51940d39e5b0d72fda6.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-646-_JPG.rf.5d1fd109686f21a3a4b1bd5ed67e69f0.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-48-_JPG.rf.9305a3e41fe952c0fcd813c8347e72be.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-145-_JPG.rf.43d839354f8f326444826b7f6b620533.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-339-_JPG.rf.fa2ba7a841d2fc746694253675b72cf2.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-30-_JPG.rf.33a92f35e180fcd459a93d8add17716d.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-292-_JPG.rf.bd7a56c8ccd89e5b11a37956c4c10c48.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-414-_JPG.rf.dc2716796b148a91adc2d4ccda25bb2d.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-399-_JPG.rf.705b27583184624d288918de45ce61e3.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-54-_JPG.rf.ca3fadaea1abe4091ab7fcfe3f589821.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-731-_JPG.rf.eb78a0aff336b8810c05e120c7e21211.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-624-_JPG.rf.47d196e9d7f7468dd0a7a66329aaed35.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-364-_JPG.rf.eb68b3d198e0ab408670be094c7aa859.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-394-_JPG.rf.c0e7077a8852eae6cf51ac6da63f510c.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-150-_JPG.rf.07b2d5c0f264e84dd7369b3142b0ab5a.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-418-_JPG.rf.b9c343ef6a19a166eb2fab6c91e9c530.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-51-_JPG.rf.9c89eea5b72dd1a7618754322eab42de.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-303-_JPG.rf.fff2f125852ab23d310a0662f81a7483.jpg
+./test/distorted_test.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="8" ht="15" customHeight="1">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>101</v>
+      </c>
+      <c r="D8" t="n">
+        <v>45</v>
+      </c>
+      <c r="E8" t="n">
+        <v>23</v>
+      </c>
+      <c r="F8" t="n">
+        <v>33</v>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-16-_JPG.rf.04f6ceedb99371d2b6456448e71615eb.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-673-_JPG.rf.c8469e486981b8758801104df330a5ec.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-458-_JPG.rf.ea9ab7bf5d432407de720dde17192a54.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-352-_JPG.rf.009749bbbdfb67c1491020926353097e.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-718-_JPG.rf.42e1d7cb28e826521109abb1cdb19a3c.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-319-_JPG.rf.bdde571eadd1490210d159261cb5b055.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-331-_JPG.rf.248b20f0b3c568d2dda7ebcf17826d17.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-90-_JPG.rf.d125d733f6ff276a892b51a3ce5fb4b2.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-229-_JPG.rf.df6e02577675d59232d98aa29fe53f40.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-438-_JPG.rf.76996c330be190456e42bab9f0d9ce6e.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-12-_JPG.rf.e8197597aa029a65767b1ac7a1f2d7f3.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-154-_JPG.rf.4b873a53250dd64a9f47f7beb2243878.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-639-_JPG.rf.6edf82f6d787a7ccf9e6bdc0020e6390.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-96-_JPG.rf.e8f9a0d5a9db9480443d995e3cbfa16d.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-364-_JPG.rf.eb68b3d198e0ab408670be094c7aa859.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-278-_JPG.rf.b80b2ffcc22a51a8028267a249072e8e.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-477-_JPG.rf.4767b8d41c78e578e4e3c9e087b6db8e.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-731-_JPG.rf.eb78a0aff336b8810c05e120c7e21211.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-134-_JPG.rf.20fc4aa3de6d5b108a410da33095166a.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-129-_JPG.rf.ab9ee6ec9cc54cf08a84ed6dd6b17660.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-332-_JPG.rf.0d51e458a712d10f0a3d80105b57548f.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-1024-_JPG.rf.c043f957ae5d4ef4776904ddca95c071.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-561-_JPG.rf.215b896c40132a36b04c2861e80922ad.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-1036-_JPG.rf.125964e834dc1bb8289aea6e23865c88.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-238-_JPG.rf.6dbbd7f7812978644c959b17a15725fd.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-147-_JPG.rf.490a0563dff196e0b8ca0cbcee0afff6.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-324-_JPG.rf.22ef4a6301bde210b16e515268dc6835.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-303-_JPG.rf.fff2f125852ab23d310a0662f81a7483.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-490-_JPG.rf.56a0be42dae8e67015a027f8dab97711.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-282-_JPG.rf.256abf8f7ac2eeee23a924d9267db9a5.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-62-_JPG.rf.856ff9c98659916444a3a8d469215445.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-189-_JPG.rf.557a72188a67f78d2335f67cefc505d3.jpg
+./test/distorted_test.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>101</v>
+      </c>
+      <c r="D9" t="n">
+        <v>55</v>
+      </c>
+      <c r="E9" t="n">
+        <v>29</v>
+      </c>
+      <c r="F9" t="n">
+        <v>17</v>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-1036-_JPG.rf.125964e834dc1bb8289aea6e23865c88.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-12-_JPG.rf.e8197597aa029a65767b1ac7a1f2d7f3.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-633-_JPG.rf.0254b731c2c33b722b65a8e584c18370.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-744-_JPG.rf.058880794fac9ba7e33146a9d6d8429f.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-346-_JPG.rf.84dcdd0d78459de103679fc4072923b9.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-331-_JPG.rf.248b20f0b3c568d2dda7ebcf17826d17.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-272-_JPG.rf.4d0cd3a4d1257f4a4c8ad2c5495ecf55.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-713-_JPG.rf.87db25da7f74c708f7760e1534aac620.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-477-_JPG.rf.4767b8d41c78e578e4e3c9e087b6db8e.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-240-_JPG.rf.3fbec51d0b96eafcaefd5c20a45592a2.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-453-_JPG.rf.3a70523b242dba0f66dde6d801069cd4.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-745-_JPG.rf.f7a377399dd86380a0ce3bdad589bf40.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-740-_JPG.rf.430c0c2d3c7ad7aa2c0566b4e41d3a46.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-162-_JPG.rf.4bd9a0c812af465ebe013c1a8c577341.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-286-_JPG.rf.c549fada8dc8df3c89f43702a7f0df5e.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-438-_JPG.rf.76996c330be190456e42bab9f0d9ce6e.jpg
+./test/distorted_test.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="10" ht="15" customHeight="1">
+      <c r="A10" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>101</v>
+      </c>
+      <c r="D10" t="n">
+        <v>40</v>
+      </c>
+      <c r="E10" t="n">
+        <v>41</v>
+      </c>
+      <c r="F10" t="n">
+        <v>20</v>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-360-_JPG.rf.bc5eed1c8f75a6a7022c1b7a0d4166f8.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-458-_JPG.rf.ea9ab7bf5d432407de720dde17192a54.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-716-_JPG.rf.8df6fe9790adc51940d39e5b0d72fda6.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-19-_JPG.rf.2a1fdd95d72dd9e7dd4a1e29c9cda469.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-324-_JPG.rf.22ef4a6301bde210b16e515268dc6835.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-329-_JPG.rf.62fc50c1ac1db9a5607c1c60c84fe1c1.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-148-_JPG.rf.53cc7f93785f3514a057574fe7f0f7df.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-278-_JPG.rf.b80b2ffcc22a51a8028267a249072e8e.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-129-_JPG.rf.ab9ee6ec9cc54cf08a84ed6dd6b17660.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-187-_JPG.rf.101e220a5eba6517da525ee24bf12efd.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-335-_JPG.rf.244e5a9baad3aaad28435ff538efb14b.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-740-_JPG.rf.430c0c2d3c7ad7aa2c0566b4e41d3a46.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-624-_JPG.rf.47d196e9d7f7468dd0a7a66329aaed35.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-485-_JPG.rf.907f717c74dad2717f81b655b067e6d9.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-646-_JPG.rf.5d1fd109686f21a3a4b1bd5ed67e69f0.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-1038-_JPG.rf.e87df85da49da49b9264c4b71bd5ae04.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-331-_JPG.rf.248b20f0b3c568d2dda7ebcf17826d17.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-303-_JPG.rf.fff2f125852ab23d310a0662f81a7483.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-229-_JPG.rf.df6e02577675d59232d98aa29fe53f40.jpg
+./test/distorted_test.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="11" ht="15" customHeight="1">
+      <c r="A11" t="n">
+        <v>10</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>101</v>
+      </c>
+      <c r="D11" t="n">
+        <v>42</v>
+      </c>
+      <c r="E11" t="n">
+        <v>33</v>
+      </c>
+      <c r="F11" t="n">
+        <v>26</v>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-129-_JPG.rf.ab9ee6ec9cc54cf08a84ed6dd6b17660.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-458-_JPG.rf.ea9ab7bf5d432407de720dde17192a54.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-479-_JPG.rf.e38d4b914d9ad1ef813e301c62645630.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-731-_JPG.rf.eb78a0aff336b8810c05e120c7e21211.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-399-_JPG.rf.705b27583184624d288918de45ce61e3.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-1028-_JPG.rf.b394c31ab7aad66b9b628ff50c1492dc.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-468-_JPG.rf.8ef498e146b44f74b56c446ec23fd687.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-453-_JPG.rf.3a70523b242dba0f66dde6d801069cd4.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-477-_JPG.rf.4767b8d41c78e578e4e3c9e087b6db8e.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-490-_JPG.rf.56a0be42dae8e67015a027f8dab97711.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-363-_JPG.rf.4d4c1f444b16aa737fd3d516593d6fd8.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-843-_JPG.rf.be0623821e5f620ea62eef3dab9a2e17.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-242-_JPG.rf.3dd13cf830ade7b717584ca902e6ebde.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-348-_JPG.rf.9f4bc695391601303988ba78600f7d70.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-414-_JPG.rf.dc2716796b148a91adc2d4ccda25bb2d.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-759-_JPG.rf.6c1948e459994c69080e2c2137eb0317.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-189-_JPG.rf.557a72188a67f78d2335f67cefc505d3.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-3-_JPG.rf.61ddb6d24fa910f849334bc4032b2be2.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-236-_JPG.rf.d452958e476cf266515683defbcb84f3.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-322-_JPG.rf.1873022eb2d5bdc66152548becde2213.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-192-_JPG.rf.09e87f020a24645f819cdb8b25c717d2.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-352-_JPG.rf.009749bbbdfb67c1491020926353097e.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-258-_JPG.rf.ab243c01ad05b4fc703a686da79196a0.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-630-_JPG.rf.2eeb2e013056f437bb53f3e5e2075686.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-134-_JPG.rf.20fc4aa3de6d5b108a410da33095166a.jpg
+./test/distorted_test.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>101</v>
+      </c>
+      <c r="D12" t="n">
+        <v>41</v>
+      </c>
+      <c r="E12" t="n">
+        <v>36</v>
+      </c>
+      <c r="F12" t="n">
+        <v>24</v>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-234-_JPG.rf.fc667e9e6ed0cf128e3beebc7437d192.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-324-_JPG.rf.22ef4a6301bde210b16e515268dc6835.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-1006-_JPG.rf.368f197102bba7d346f319629104cb0d.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-1034-_JPG.rf.3860e7f828d0d30a55ff56f470bd5ec2.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-240-_JPG.rf.3fbec51d0b96eafcaefd5c20a45592a2.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-717-_JPG.rf.fb509eb0f9da4f285fa5cab67042b208.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-134-_JPG.rf.20fc4aa3de6d5b108a410da33095166a.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-46-_JPG.rf.0741f117d310705e26b6025bdbc69104.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-468-_JPG.rf.8ef498e146b44f74b56c446ec23fd687.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-180-_JPG.rf.b585d4e642b35da0c395188964f330fa.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-732-_JPG.rf.6439f0ba31be467c65635d23f883f03a.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-642-_JPG.rf.0e47b3898bb3d8ed8fa931bc32e150a3.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Fresh\FRESH-540-_JPG.rf.521404d3a90f18395947915c14a492fc.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-807-_JPG.rf.b9fc3a3ebbe5be7338e77f73d709177f.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-487-_JPG.rf.34963daef43af9b2a6fd9af7e1f21f27.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-346-_JPG.rf.84dcdd0d78459de103679fc4072923b9.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-624-_JPG.rf.47d196e9d7f7468dd0a7a66329aaed35.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-280-_JPG.rf.3214c920a44a5d32b72cf44aec389726.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-19-_JPG.rf.2a1fdd95d72dd9e7dd4a1e29c9cda469.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-12-_JPG.rf.e8197597aa029a65767b1ac7a1f2d7f3.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-236-_JPG.rf.d452958e476cf266515683defbcb84f3.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-283-_JPG.rf.09d58e1fb8815c1df125ae23795a4cbe.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-238-_JPG.rf.6dbbd7f7812978644c959b17a15725fd.jpg
+./test/distorted_test.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="15" customHeight="1">
+      <c r="A13" t="n">
+        <v>12</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>101</v>
+      </c>
+      <c r="D13" t="n">
+        <v>43</v>
+      </c>
+      <c r="E13" t="n">
+        <v>37</v>
+      </c>
+      <c r="F13" t="n">
+        <v>21</v>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-360-_JPG.rf.bc5eed1c8f75a6a7022c1b7a0d4166f8.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-150-_JPG.rf.07b2d5c0f264e84dd7369b3142b0ab5a.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-291-_JPG.rf.f2595b043b3affcf70263ccf7660cce6.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-240-_JPG.rf.3fbec51d0b96eafcaefd5c20a45592a2.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-477-_JPG.rf.4767b8d41c78e578e4e3c9e087b6db8e.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-238-_JPG.rf.6dbbd7f7812978644c959b17a15725fd.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-324-_JPG.rf.22ef4a6301bde210b16e515268dc6835.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-189-_JPG.rf.557a72188a67f78d2335f67cefc505d3.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-713-_JPG.rf.87db25da7f74c708f7760e1534aac620.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-391-_JPG.rf.3bc0f66162fcbc5e3414eef75228101c.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-409-_JPG.rf.499632ab16bb763997c5c91b88eb1fd3.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-630-_JPG.rf.2eeb2e013056f437bb53f3e5e2075686.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-234-_JPG.rf.fc667e9e6ed0cf128e3beebc7437d192.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-745-_JPG.rf.f7a377399dd86380a0ce3bdad589bf40.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-485-_JPG.rf.907f717c74dad2717f81b655b067e6d9.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-479-_JPG.rf.e38d4b914d9ad1ef813e301c62645630.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-394-_JPG.rf.c0e7077a8852eae6cf51ac6da63f510c.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-1038-_JPG.rf.e87df85da49da49b9264c4b71bd5ae04.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-731-_JPG.rf.eb78a0aff336b8810c05e120c7e21211.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-3-_JPG.rf.61ddb6d24fa910f849334bc4032b2be2.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-716-_JPG.rf.8df6fe9790adc51940d39e5b0d72fda6.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="14" ht="15" customHeight="1">
+      <c r="A14" t="n">
+        <v>13</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>101</v>
+      </c>
+      <c r="D14" t="n">
+        <v>40</v>
+      </c>
+      <c r="E14" t="n">
+        <v>40</v>
+      </c>
+      <c r="F14" t="n">
+        <v>21</v>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-732-_JPG.rf.6439f0ba31be467c65635d23f883f03a.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-134-_JPG.rf.20fc4aa3de6d5b108a410da33095166a.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-713-_JPG.rf.87db25da7f74c708f7760e1534aac620.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-19-_JPG.rf.2a1fdd95d72dd9e7dd4a1e29c9cda469.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-490-_JPG.rf.56a0be42dae8e67015a027f8dab97711.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-468-_JPG.rf.8ef498e146b44f74b56c446ec23fd687.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-731-_JPG.rf.eb78a0aff336b8810c05e120c7e21211.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-479-_JPG.rf.e38d4b914d9ad1ef813e301c62645630.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-3-_JPG.rf.61ddb6d24fa910f849334bc4032b2be2.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-638-_JPG.rf.37a2cea7214a0c5526b56bd1256b6c0c.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-633-_JPG.rf.0254b731c2c33b722b65a8e584c18370.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-485-_JPG.rf.907f717c74dad2717f81b655b067e6d9.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-129-_JPG.rf.ab9ee6ec9cc54cf08a84ed6dd6b17660.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-234-_JPG.rf.fc667e9e6ed0cf128e3beebc7437d192.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-348-_JPG.rf.9f4bc695391601303988ba78600f7d70.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-1020-_JPG.rf.1322f834f0cb0fdc2d6a91b2b0ac9dcc.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-26-_JPG.rf.59b69017d91e0af8f36accf2d71aef25.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-477-_JPG.rf.4767b8d41c78e578e4e3c9e087b6db8e.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-319-_JPG.rf.bdde571eadd1490210d159261cb5b055.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-278-_JPG.rf.b80b2ffcc22a51a8028267a249072e8e.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-1036-_JPG.rf.125964e834dc1bb8289aea6e23865c88.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="15" ht="15" customHeight="1">
+      <c r="A15" t="n">
+        <v>14</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>101</v>
+      </c>
+      <c r="D15" t="n">
+        <v>41</v>
+      </c>
+      <c r="E15" t="n">
+        <v>38</v>
+      </c>
+      <c r="F15" t="n">
+        <v>22</v>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-491-_JPG.rf.75f4d5b978158140e60591bcf8a528ab.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-633-_JPG.rf.0254b731c2c33b722b65a8e584c18370.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-46-_JPG.rf.0741f117d310705e26b6025bdbc69104.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-229-_JPG.rf.df6e02577675d59232d98aa29fe53f40.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-1038-_JPG.rf.e87df85da49da49b9264c4b71bd5ae04.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-26-_JPG.rf.59b69017d91e0af8f36accf2d71aef25.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-394-_JPG.rf.c0e7077a8852eae6cf51ac6da63f510c.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-292-_JPG.rf.bd7a56c8ccd89e5b11a37956c4c10c48.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-20-_JPG.rf.4079ad9771a896e16aff7efb6bf87f78.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-399-_JPG.rf.705b27583184624d288918de45ce61e3.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-485-_JPG.rf.907f717c74dad2717f81b655b067e6d9.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-453-_JPG.rf.3a70523b242dba0f66dde6d801069cd4.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-234-_JPG.rf.0a2cfb6613a209b7980611dc90d3763a.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-639-_JPG.rf.4922d42744fe6e09909cf0b7433d3634.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-6-_JPG.rf.78e0655f10339abfdce59e13d641bfa8.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-479-_JPG.rf.e38d4b914d9ad1ef813e301c62645630.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-716-_JPG.rf.8df6fe9790adc51940d39e5b0d72fda6.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-487-_JPG.rf.34963daef43af9b2a6fd9af7e1f21f27.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-1028-_JPG.rf.b394c31ab7aad66b9b628ff50c1492dc.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Half-Fresh\HALF-FRESH-948-_JPG.rf.79c4417452989a48f5a6b78872f2ae44.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-1024-_JPG.rf.c043f957ae5d4ef4776904ddca95c071.jpg
+./test/distorted_test.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="16" ht="15" customHeight="1">
+      <c r="A16" t="n">
+        <v>15</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>101</v>
+      </c>
+      <c r="D16" t="n">
+        <v>37</v>
+      </c>
+      <c r="E16" t="n">
+        <v>40</v>
+      </c>
+      <c r="F16" t="n">
+        <v>24</v>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-229-_JPG.rf.df6e02577675d59232d98aa29fe53f40.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-630-_JPG.rf.2eeb2e013056f437bb53f3e5e2075686.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-291-_JPG.rf.f2595b043b3affcf70263ccf7660cce6.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-339-_JPG.rf.fa2ba7a841d2fc746694253675b72cf2.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-187-_JPG.rf.101e220a5eba6517da525ee24bf12efd.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-458-_JPG.rf.ea9ab7bf5d432407de720dde17192a54.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-479-_JPG.rf.e38d4b914d9ad1ef813e301c62645630.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-646-_JPG.rf.5d1fd109686f21a3a4b1bd5ed67e69f0.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-745-_JPG.rf.f7a377399dd86380a0ce3bdad589bf40.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-391-_JPG.rf.3bc0f66162fcbc5e3414eef75228101c.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-624-_JPG.rf.47d196e9d7f7468dd0a7a66329aaed35.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-331-_JPG.rf.248b20f0b3c568d2dda7ebcf17826d17.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-641-_JPG.rf.8976c889ac7d3c9ea9e5acfc68bd1cf8.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-485-_JPG.rf.907f717c74dad2717f81b655b067e6d9.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-394-_JPG.rf.c0e7077a8852eae6cf51ac6da63f510c.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-759-_JPG.rf.6c1948e459994c69080e2c2137eb0317.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-180-_JPG.rf.b585d4e642b35da0c395188964f330fa.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-740-_JPG.rf.430c0c2d3c7ad7aa2c0566b4e41d3a46.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-162-_JPG.rf.4bd9a0c812af465ebe013c1a8c577341.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-329-_JPG.rf.62fc50c1ac1db9a5607c1c60c84fe1c1.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-280-_JPG.rf.3214c920a44a5d32b72cf44aec389726.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-744-_JPG.rf.058880794fac9ba7e33146a9d6d8429f.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-230-_JPG.rf.796339e7b787db3b8ff8a5bea55421d2.jpg
+./test/distorted_test.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="17" ht="15" customHeight="1">
+      <c r="A17" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>2024-09-16</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>101</v>
+      </c>
+      <c r="D17" t="n">
+        <v>44</v>
+      </c>
+      <c r="E17" t="n">
+        <v>46</v>
+      </c>
+      <c r="F17" t="n">
+        <v>11</v>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-458-_JPG.rf.ea9ab7bf5d432407de720dde17192a54.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-1028-_JPG.rf.b394c31ab7aad66b9b628ff50c1492dc.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-129-_JPG.rf.ab9ee6ec9cc54cf08a84ed6dd6b17660.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-638-_JPG.rf.37a2cea7214a0c5526b56bd1256b6c0c.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-134-_JPG.rf.20fc4aa3de6d5b108a410da33095166a.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-335-_JPG.rf.244e5a9baad3aaad28435ff538efb14b.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-234-_JPG.rf.fc667e9e6ed0cf128e3beebc7437d192.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-744-_JPG.rf.058880794fac9ba7e33146a9d6d8429f.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-148-_JPG.rf.53cc7f93785f3514a057574fe7f0f7df.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-180-_JPG.rf.b585d4e642b35da0c395188964f330fa.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-438-_JPG.rf.76996c330be190456e42bab9f0d9ce6e.jpg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/results/report.xlsx
+++ b/src/results/report.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,6 +569,93 @@
         </is>
       </c>
     </row>
+    <row r="4" ht="15" customHeight="1">
+      <c r="A4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>100</v>
+      </c>
+      <c r="D4" t="n">
+        <v>42</v>
+      </c>
+      <c r="E4" t="n">
+        <v>38</v>
+      </c>
+      <c r="F4" t="n">
+        <v>20</v>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-732-_JPG.rf.6439f0ba31be467c65635d23f883f03a.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-745-_JPG.rf.f7a377399dd86380a0ce3bdad589bf40.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-716-_JPG.rf.8df6fe9790adc51940d39e5b0d72fda6.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-353-_JPG.rf.5d4b9a9ad1386320d6e2dc46abdf47ab.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-335-_JPG.rf.244e5a9baad3aaad28435ff538efb14b.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-54-_JPG.rf.ca3fadaea1abe4091ab7fcfe3f589821.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-51-_JPG.rf.9c89eea5b72dd1a7618754322eab42de.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-458-_JPG.rf.ea9ab7bf5d432407de720dde17192a54.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-755-_JPG.rf.16bc7e3c1f2890154366e119e5355465.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-394-_JPG.rf.c0e7077a8852eae6cf51ac6da63f510c.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-1028-_JPG.rf.b394c31ab7aad66b9b628ff50c1492dc.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-731-_JPG.rf.eb78a0aff336b8810c05e120c7e21211.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-713-_JPG.rf.87db25da7f74c708f7760e1534aac620.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-229-_JPG.rf.df6e02577675d59232d98aa29fe53f40.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-48-_JPG.rf.9305a3e41fe952c0fcd813c8347e72be.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-485-_JPG.rf.907f717c74dad2717f81b655b067e6d9.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-134-_JPG.rf.20fc4aa3de6d5b108a410da33095166a.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-363-_JPG.rf.4d4c1f444b16aa737fd3d516593d6fd8.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-331-_JPG.rf.248b20f0b3c568d2dda7ebcf17826d17.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-346-_JPG.rf.84dcdd0d78459de103679fc4072923b9.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1">
+      <c r="A5" t="n">
+        <v>4</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>101</v>
+      </c>
+      <c r="D5" t="n">
+        <v>46</v>
+      </c>
+      <c r="E5" t="n">
+        <v>40</v>
+      </c>
+      <c r="F5" t="n">
+        <v>15</v>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-335-_JPG.rf.244e5a9baad3aaad28435ff538efb14b.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-229-_JPG.rf.df6e02577675d59232d98aa29fe53f40.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-272-_JPG.rf.4d0cd3a4d1257f4a4c8ad2c5495ecf55.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-1042-_JPG.rf.9fb4014c54d5b72f9ef516e00ef90ff7.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-1034-_JPG.rf.3860e7f828d0d30a55ff56f470bd5ec2.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-445-_JPG.rf.f32998290a4249889c3ebc39b80d8489.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-19-_JPG.rf.2a1fdd95d72dd9e7dd4a1e29c9cda469.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-292-_JPG.rf.bd7a56c8ccd89e5b11a37956c4c10c48.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-234-_JPG.rf.fc667e9e6ed0cf128e3beebc7437d192.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-30-_JPG.rf.33a92f35e180fcd459a93d8add17716d.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-1020-_JPG.rf.1322f834f0cb0fdc2d6a91b2b0ac9dcc.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-745-_JPG.rf.f7a377399dd86380a0ce3bdad589bf40.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-485-_JPG.rf.907f717c74dad2717f81b655b067e6d9.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-477-_JPG.rf.4767b8d41c78e578e4e3c9e087b6db8e.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid/Spoiled/SPOILED-646-_JPG.rf.5d1fd109686f21a3a4b1bd5ed67e69f0.jpg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/src/results/report.xlsx
+++ b/src/results/report.xlsx
@@ -428,7 +428,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -656,6 +656,44 @@
         </is>
       </c>
     </row>
+    <row r="6" ht="15" customHeight="1">
+      <c r="A6" t="n">
+        <v>5</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2024-09-17</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>101</v>
+      </c>
+      <c r="D6" t="n">
+        <v>40</v>
+      </c>
+      <c r="E6" t="n">
+        <v>49</v>
+      </c>
+      <c r="F6" t="n">
+        <v>12</v>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-409-_JPG.rf.499632ab16bb763997c5c91b88eb1fd3.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-417-_JPG.rf.c301b1ab8085ae7697a696e847ed1e3a.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-240-_JPG.rf.3fbec51d0b96eafcaefd5c20a45592a2.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-353-_JPG.rf.5d4b9a9ad1386320d6e2dc46abdf47ab.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-12-_JPG.rf.e8197597aa029a65767b1ac7a1f2d7f3.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-490-_JPG.rf.56a0be42dae8e67015a027f8dab97711.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-646-_JPG.rf.5d1fd109686f21a3a4b1bd5ed67e69f0.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-319-_JPG.rf.bdde571eadd1490210d159261cb5b055.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-759-_JPG.rf.6c1948e459994c69080e2c2137eb0317.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-745-_JPG.rf.f7a377399dd86380a0ce3bdad589bf40.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-180-_JPG.rf.b585d4e642b35da0c395188964f330fa.jpg
+../meat_freshness_dataset/Meat Freshness.v1-new-dataset.multiclass/valid\Spoiled\SPOILED-150-_JPG.rf.07b2d5c0f264e84dd7369b3142b0ab5a.jpg</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
